--- a/report/sadman.xlsx
+++ b/report/sadman.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\University\ECE554\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sadma\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{377856F2-B573-4A37-A825-C4C0C730196A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{231833C4-B28D-49CB-8635-C2AA3125EEBD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{9F76B2F9-286B-4066-94AA-47694711870D}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
   <si>
     <t>Till 03/13/25</t>
   </si>
@@ -51,6 +51,9 @@
   </si>
   <si>
     <t>Finished initial implementation of BRAM controller and tested it. It has 8, 256 bit vector registers and two line buffers. Also have a psudo implementation of SDRAM controller based on Minilab 2. Needs more verification</t>
+  </si>
+  <si>
+    <t>Was able to use and access the FPGA sdram controller. Seemed to work fine when tested manually but still some inconsistencies when accessing sequentially. Tried to implement the axi bridge and access HPS sdram but having few issues. Need to discuss with team and TA/instructor.</t>
   </si>
 </sst>
 </file>
@@ -446,15 +449,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{90CE2574-222C-4AFC-949F-167DB0C45B69}">
-  <dimension ref="A1:Q18"/>
+  <dimension ref="A1:W18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I4" sqref="I4"/>
+      <selection activeCell="N6" sqref="N6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>1</v>
       </c>
@@ -467,7 +470,7 @@
       <c r="F1" s="2"/>
       <c r="G1" s="2"/>
     </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -480,39 +483,45 @@
       <c r="F2" s="1"/>
       <c r="G2" s="1"/>
     </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A3" s="3">
         <v>45734</v>
       </c>
       <c r="B3" s="1"/>
-      <c r="C3" s="4" t="s">
+      <c r="C3" t="s">
         <v>4</v>
       </c>
-      <c r="D3" s="4"/>
-      <c r="E3" s="4"/>
-      <c r="F3" s="4"/>
-      <c r="G3" s="4"/>
-      <c r="H3" s="4"/>
-      <c r="I3" s="4"/>
-      <c r="J3" s="4"/>
-      <c r="K3" s="4"/>
-      <c r="L3" s="4"/>
-      <c r="M3" s="4"/>
-      <c r="N3" s="4"/>
-      <c r="O3" s="4"/>
-      <c r="P3" s="4"/>
-      <c r="Q3" s="4"/>
-    </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A4" s="1"/>
+    </row>
+    <row r="4" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A4" s="3">
+        <v>45747</v>
+      </c>
       <c r="B4" s="1"/>
-      <c r="C4" s="4"/>
-      <c r="D4" s="4"/>
-      <c r="E4" s="4"/>
-      <c r="F4" s="4"/>
-      <c r="G4" s="4"/>
-    </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="C4" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D4" s="1"/>
+      <c r="E4" s="1"/>
+      <c r="F4" s="1"/>
+      <c r="G4" s="1"/>
+      <c r="H4" s="1"/>
+      <c r="I4" s="1"/>
+      <c r="J4" s="1"/>
+      <c r="K4" s="1"/>
+      <c r="L4" s="1"/>
+      <c r="M4" s="1"/>
+      <c r="N4" s="1"/>
+      <c r="O4" s="1"/>
+      <c r="P4" s="1"/>
+      <c r="Q4" s="1"/>
+      <c r="R4" s="1"/>
+      <c r="S4" s="1"/>
+      <c r="T4" s="1"/>
+      <c r="U4" s="1"/>
+      <c r="V4" s="1"/>
+      <c r="W4" s="1"/>
+    </row>
+    <row r="5" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A5" s="1"/>
       <c r="B5" s="1"/>
       <c r="C5" s="4"/>
@@ -520,8 +529,24 @@
       <c r="E5" s="4"/>
       <c r="F5" s="4"/>
       <c r="G5" s="4"/>
-    </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="H5" s="4"/>
+      <c r="I5" s="4"/>
+      <c r="J5" s="4"/>
+      <c r="K5" s="4"/>
+      <c r="L5" s="4"/>
+      <c r="M5" s="4"/>
+      <c r="N5" s="4"/>
+      <c r="O5" s="4"/>
+      <c r="P5" s="4"/>
+      <c r="Q5" s="4"/>
+      <c r="R5" s="4"/>
+      <c r="S5" s="4"/>
+      <c r="T5" s="4"/>
+      <c r="U5" s="4"/>
+      <c r="V5" s="4"/>
+      <c r="W5" s="4"/>
+    </row>
+    <row r="6" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A6" s="1"/>
       <c r="B6" s="1"/>
       <c r="C6" s="1"/>
@@ -530,7 +555,7 @@
       <c r="F6" s="1"/>
       <c r="G6" s="1"/>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A7" s="1"/>
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
@@ -539,7 +564,7 @@
       <c r="F7" s="1"/>
       <c r="G7" s="1"/>
     </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A8" s="1"/>
       <c r="B8" s="1"/>
       <c r="C8" s="1"/>
@@ -548,7 +573,7 @@
       <c r="F8" s="1"/>
       <c r="G8" s="1"/>
     </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A9" s="1"/>
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
@@ -557,7 +582,7 @@
       <c r="F9" s="1"/>
       <c r="G9" s="1"/>
     </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A10" s="1"/>
       <c r="B10" s="1"/>
       <c r="C10" s="1"/>
@@ -566,7 +591,7 @@
       <c r="F10" s="1"/>
       <c r="G10" s="1"/>
     </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A11" s="1"/>
       <c r="B11" s="1"/>
       <c r="C11" s="1"/>
@@ -575,7 +600,7 @@
       <c r="F11" s="1"/>
       <c r="G11" s="1"/>
     </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A12" s="1"/>
       <c r="B12" s="1"/>
       <c r="C12" s="1"/>
@@ -584,7 +609,7 @@
       <c r="F12" s="1"/>
       <c r="G12" s="1"/>
     </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A13" s="1"/>
       <c r="B13" s="1"/>
       <c r="C13" s="1"/>
@@ -593,7 +618,7 @@
       <c r="F13" s="1"/>
       <c r="G13" s="1"/>
     </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A14" s="1"/>
       <c r="B14" s="1"/>
       <c r="C14" s="1"/>
@@ -602,7 +627,7 @@
       <c r="F14" s="1"/>
       <c r="G14" s="1"/>
     </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A15" s="1"/>
       <c r="B15" s="1"/>
       <c r="C15" s="1"/>
@@ -611,7 +636,7 @@
       <c r="F15" s="1"/>
       <c r="G15" s="1"/>
     </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A16" s="1"/>
       <c r="B16" s="1"/>
       <c r="C16" s="1"/>
@@ -639,15 +664,17 @@
       <c r="G18" s="1"/>
     </row>
   </sheetData>
-  <mergeCells count="33">
-    <mergeCell ref="C17:G17"/>
-    <mergeCell ref="C18:G18"/>
-    <mergeCell ref="C11:G11"/>
-    <mergeCell ref="C12:G12"/>
-    <mergeCell ref="C13:G13"/>
-    <mergeCell ref="C14:G14"/>
-    <mergeCell ref="C15:G15"/>
-    <mergeCell ref="C16:G16"/>
+  <mergeCells count="34">
+    <mergeCell ref="A9:B9"/>
+    <mergeCell ref="A10:B10"/>
+    <mergeCell ref="A11:B11"/>
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="C1:G1"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="C4:W4"/>
     <mergeCell ref="A18:B18"/>
     <mergeCell ref="C2:G2"/>
     <mergeCell ref="C6:G6"/>
@@ -664,15 +691,14 @@
     <mergeCell ref="A6:B6"/>
     <mergeCell ref="A7:B7"/>
     <mergeCell ref="A8:B8"/>
-    <mergeCell ref="A9:B9"/>
-    <mergeCell ref="A10:B10"/>
-    <mergeCell ref="A11:B11"/>
-    <mergeCell ref="A1:B1"/>
-    <mergeCell ref="C1:G1"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="A4:B4"/>
-    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="C17:G17"/>
+    <mergeCell ref="C18:G18"/>
+    <mergeCell ref="C11:G11"/>
+    <mergeCell ref="C12:G12"/>
+    <mergeCell ref="C13:G13"/>
+    <mergeCell ref="C14:G14"/>
+    <mergeCell ref="C15:G15"/>
+    <mergeCell ref="C16:G16"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/report/sadman.xlsx
+++ b/report/sadman.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28526"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28623"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sadma\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{231833C4-B28D-49CB-8635-C2AA3125EEBD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{622F801A-D46D-4453-B587-E867A186CAE8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{9F76B2F9-286B-4066-94AA-47694711870D}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
   <si>
     <t>Till 03/13/25</t>
   </si>
@@ -54,6 +54,9 @@
   </si>
   <si>
     <t>Was able to use and access the FPGA sdram controller. Seemed to work fine when tested manually but still some inconsistencies when accessing sequentially. Tried to implement the axi bridge and access HPS sdram but having few issues. Need to discuss with team and TA/instructor.</t>
+  </si>
+  <si>
+    <t>Created a qsys setup with hps and dma controllers but seemed like accessing the hps using Linux was not a viable option. So, changed plan to use the FPGA Sdram instead and use JTAG master to load up memory from external pc. Also creadted a custom IP named SDRAM_Wrapper and connected in QSYS that can be used in other modules to rd/wr from sdram. So, Memory part of the project is done, just need to integrated with design.</t>
   </si>
 </sst>
 </file>
@@ -103,7 +106,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -114,7 +117,6 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -449,15 +451,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{90CE2574-222C-4AFC-949F-167DB0C45B69}">
-  <dimension ref="A1:W18"/>
+  <dimension ref="A1:AM18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N6" sqref="N6"/>
+      <selection activeCell="Y4" sqref="Y4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>1</v>
       </c>
@@ -470,7 +472,7 @@
       <c r="F1" s="2"/>
       <c r="G1" s="2"/>
     </row>
-    <row r="2" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -483,7 +485,7 @@
       <c r="F2" s="1"/>
       <c r="G2" s="1"/>
     </row>
-    <row r="3" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A3" s="3">
         <v>45734</v>
       </c>
@@ -492,7 +494,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A4" s="3">
         <v>45747</v>
       </c>
@@ -521,32 +523,52 @@
       <c r="V4" s="1"/>
       <c r="W4" s="1"/>
     </row>
-    <row r="5" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A5" s="1"/>
+    <row r="5" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A5" s="3">
+        <v>45760</v>
+      </c>
       <c r="B5" s="1"/>
-      <c r="C5" s="4"/>
-      <c r="D5" s="4"/>
-      <c r="E5" s="4"/>
-      <c r="F5" s="4"/>
-      <c r="G5" s="4"/>
-      <c r="H5" s="4"/>
-      <c r="I5" s="4"/>
-      <c r="J5" s="4"/>
-      <c r="K5" s="4"/>
-      <c r="L5" s="4"/>
-      <c r="M5" s="4"/>
-      <c r="N5" s="4"/>
-      <c r="O5" s="4"/>
-      <c r="P5" s="4"/>
-      <c r="Q5" s="4"/>
-      <c r="R5" s="4"/>
-      <c r="S5" s="4"/>
-      <c r="T5" s="4"/>
-      <c r="U5" s="4"/>
-      <c r="V5" s="4"/>
-      <c r="W5" s="4"/>
-    </row>
-    <row r="6" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="C5" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D5" s="1"/>
+      <c r="E5" s="1"/>
+      <c r="F5" s="1"/>
+      <c r="G5" s="1"/>
+      <c r="H5" s="1"/>
+      <c r="I5" s="1"/>
+      <c r="J5" s="1"/>
+      <c r="K5" s="1"/>
+      <c r="L5" s="1"/>
+      <c r="M5" s="1"/>
+      <c r="N5" s="1"/>
+      <c r="O5" s="1"/>
+      <c r="P5" s="1"/>
+      <c r="Q5" s="1"/>
+      <c r="R5" s="1"/>
+      <c r="S5" s="1"/>
+      <c r="T5" s="1"/>
+      <c r="U5" s="1"/>
+      <c r="V5" s="1"/>
+      <c r="W5" s="1"/>
+      <c r="X5" s="1"/>
+      <c r="Y5" s="1"/>
+      <c r="Z5" s="1"/>
+      <c r="AA5" s="1"/>
+      <c r="AB5" s="1"/>
+      <c r="AC5" s="1"/>
+      <c r="AD5" s="1"/>
+      <c r="AE5" s="1"/>
+      <c r="AF5" s="1"/>
+      <c r="AG5" s="1"/>
+      <c r="AH5" s="1"/>
+      <c r="AI5" s="1"/>
+      <c r="AJ5" s="1"/>
+      <c r="AK5" s="1"/>
+      <c r="AL5" s="1"/>
+      <c r="AM5" s="1"/>
+    </row>
+    <row r="6" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A6" s="1"/>
       <c r="B6" s="1"/>
       <c r="C6" s="1"/>
@@ -555,7 +577,7 @@
       <c r="F6" s="1"/>
       <c r="G6" s="1"/>
     </row>
-    <row r="7" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A7" s="1"/>
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
@@ -564,7 +586,7 @@
       <c r="F7" s="1"/>
       <c r="G7" s="1"/>
     </row>
-    <row r="8" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A8" s="1"/>
       <c r="B8" s="1"/>
       <c r="C8" s="1"/>
@@ -573,7 +595,7 @@
       <c r="F8" s="1"/>
       <c r="G8" s="1"/>
     </row>
-    <row r="9" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A9" s="1"/>
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
@@ -582,7 +604,7 @@
       <c r="F9" s="1"/>
       <c r="G9" s="1"/>
     </row>
-    <row r="10" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A10" s="1"/>
       <c r="B10" s="1"/>
       <c r="C10" s="1"/>
@@ -591,7 +613,7 @@
       <c r="F10" s="1"/>
       <c r="G10" s="1"/>
     </row>
-    <row r="11" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A11" s="1"/>
       <c r="B11" s="1"/>
       <c r="C11" s="1"/>
@@ -600,7 +622,7 @@
       <c r="F11" s="1"/>
       <c r="G11" s="1"/>
     </row>
-    <row r="12" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A12" s="1"/>
       <c r="B12" s="1"/>
       <c r="C12" s="1"/>
@@ -609,7 +631,7 @@
       <c r="F12" s="1"/>
       <c r="G12" s="1"/>
     </row>
-    <row r="13" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A13" s="1"/>
       <c r="B13" s="1"/>
       <c r="C13" s="1"/>
@@ -618,7 +640,7 @@
       <c r="F13" s="1"/>
       <c r="G13" s="1"/>
     </row>
-    <row r="14" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A14" s="1"/>
       <c r="B14" s="1"/>
       <c r="C14" s="1"/>
@@ -627,7 +649,7 @@
       <c r="F14" s="1"/>
       <c r="G14" s="1"/>
     </row>
-    <row r="15" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A15" s="1"/>
       <c r="B15" s="1"/>
       <c r="C15" s="1"/>
@@ -636,7 +658,7 @@
       <c r="F15" s="1"/>
       <c r="G15" s="1"/>
     </row>
-    <row r="16" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A16" s="1"/>
       <c r="B16" s="1"/>
       <c r="C16" s="1"/>
@@ -664,7 +686,7 @@
       <c r="G18" s="1"/>
     </row>
   </sheetData>
-  <mergeCells count="34">
+  <mergeCells count="35">
     <mergeCell ref="A9:B9"/>
     <mergeCell ref="A10:B10"/>
     <mergeCell ref="A11:B11"/>
@@ -675,6 +697,7 @@
     <mergeCell ref="A4:B4"/>
     <mergeCell ref="A5:B5"/>
     <mergeCell ref="C4:W4"/>
+    <mergeCell ref="C5:AM5"/>
     <mergeCell ref="A18:B18"/>
     <mergeCell ref="C2:G2"/>
     <mergeCell ref="C6:G6"/>

--- a/report/sadman.xlsx
+++ b/report/sadman.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sadma\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{622F801A-D46D-4453-B587-E867A186CAE8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{767488BC-E04D-470C-9334-9843BF7BB211}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{9F76B2F9-286B-4066-94AA-47694711870D}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
   <si>
     <t>Till 03/13/25</t>
   </si>
@@ -57,6 +57,9 @@
   </si>
   <si>
     <t>Created a qsys setup with hps and dma controllers but seemed like accessing the hps using Linux was not a viable option. So, changed plan to use the FPGA Sdram instead and use JTAG master to load up memory from external pc. Also creadted a custom IP named SDRAM_Wrapper and connected in QSYS that can be used in other modules to rd/wr from sdram. So, Memory part of the project is done, just need to integrated with design.</t>
+  </si>
+  <si>
+    <t>Redesigned the VPU, which supports a subset of vector instructions. Integrated it with the CPU and it passed a few integrated test, though there are still some problems to constrain the toolchain to generate instruction that out VPU support. Made the memory mapped output I/O fifo which uses JTAG and a TCL script to print output on system console . Redid the Audio Codec which was not done properly even though I thought it was working already, might need to find a better way to transfer the audio data to CPU-VPU</t>
   </si>
 </sst>
 </file>
@@ -106,7 +109,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -117,6 +120,7 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -451,15 +455,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{90CE2574-222C-4AFC-949F-167DB0C45B69}">
-  <dimension ref="A1:AM18"/>
+  <dimension ref="A1:BE18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="Y4" sqref="Y4"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="C6" sqref="C6:BD6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:57" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>1</v>
       </c>
@@ -472,7 +476,7 @@
       <c r="F1" s="2"/>
       <c r="G1" s="2"/>
     </row>
-    <row r="2" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:57" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -485,7 +489,7 @@
       <c r="F2" s="1"/>
       <c r="G2" s="1"/>
     </row>
-    <row r="3" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:57" x14ac:dyDescent="0.25">
       <c r="A3" s="3">
         <v>45734</v>
       </c>
@@ -494,7 +498,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:57" x14ac:dyDescent="0.25">
       <c r="A4" s="3">
         <v>45747</v>
       </c>
@@ -523,7 +527,7 @@
       <c r="V4" s="1"/>
       <c r="W4" s="1"/>
     </row>
-    <row r="5" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:57" x14ac:dyDescent="0.25">
       <c r="A5" s="3">
         <v>45760</v>
       </c>
@@ -568,16 +572,70 @@
       <c r="AL5" s="1"/>
       <c r="AM5" s="1"/>
     </row>
-    <row r="6" spans="1:39" x14ac:dyDescent="0.25">
-      <c r="A6" s="1"/>
+    <row r="6" spans="1:57" x14ac:dyDescent="0.25">
+      <c r="A6" s="3">
+        <v>45769</v>
+      </c>
       <c r="B6" s="1"/>
-      <c r="C6" s="1"/>
+      <c r="C6" s="1" t="s">
+        <v>7</v>
+      </c>
       <c r="D6" s="1"/>
       <c r="E6" s="1"/>
       <c r="F6" s="1"/>
       <c r="G6" s="1"/>
-    </row>
-    <row r="7" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="H6" s="1"/>
+      <c r="I6" s="1"/>
+      <c r="J6" s="1"/>
+      <c r="K6" s="1"/>
+      <c r="L6" s="1"/>
+      <c r="M6" s="1"/>
+      <c r="N6" s="1"/>
+      <c r="O6" s="1"/>
+      <c r="P6" s="1"/>
+      <c r="Q6" s="1"/>
+      <c r="R6" s="1"/>
+      <c r="S6" s="1"/>
+      <c r="T6" s="1"/>
+      <c r="U6" s="1"/>
+      <c r="V6" s="1"/>
+      <c r="W6" s="1"/>
+      <c r="X6" s="1"/>
+      <c r="Y6" s="1"/>
+      <c r="Z6" s="1"/>
+      <c r="AA6" s="1"/>
+      <c r="AB6" s="1"/>
+      <c r="AC6" s="1"/>
+      <c r="AD6" s="1"/>
+      <c r="AE6" s="1"/>
+      <c r="AF6" s="1"/>
+      <c r="AG6" s="1"/>
+      <c r="AH6" s="1"/>
+      <c r="AI6" s="1"/>
+      <c r="AJ6" s="1"/>
+      <c r="AK6" s="1"/>
+      <c r="AL6" s="1"/>
+      <c r="AM6" s="1"/>
+      <c r="AN6" s="1"/>
+      <c r="AO6" s="1"/>
+      <c r="AP6" s="1"/>
+      <c r="AQ6" s="1"/>
+      <c r="AR6" s="1"/>
+      <c r="AS6" s="1"/>
+      <c r="AT6" s="1"/>
+      <c r="AU6" s="1"/>
+      <c r="AV6" s="1"/>
+      <c r="AW6" s="1"/>
+      <c r="AX6" s="1"/>
+      <c r="AY6" s="1"/>
+      <c r="AZ6" s="1"/>
+      <c r="BA6" s="1"/>
+      <c r="BB6" s="1"/>
+      <c r="BC6" s="1"/>
+      <c r="BD6" s="1"/>
+      <c r="BE6" s="4"/>
+    </row>
+    <row r="7" spans="1:57" x14ac:dyDescent="0.25">
       <c r="A7" s="1"/>
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
@@ -586,7 +644,7 @@
       <c r="F7" s="1"/>
       <c r="G7" s="1"/>
     </row>
-    <row r="8" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:57" x14ac:dyDescent="0.25">
       <c r="A8" s="1"/>
       <c r="B8" s="1"/>
       <c r="C8" s="1"/>
@@ -595,7 +653,7 @@
       <c r="F8" s="1"/>
       <c r="G8" s="1"/>
     </row>
-    <row r="9" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:57" x14ac:dyDescent="0.25">
       <c r="A9" s="1"/>
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
@@ -604,7 +662,7 @@
       <c r="F9" s="1"/>
       <c r="G9" s="1"/>
     </row>
-    <row r="10" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:57" x14ac:dyDescent="0.25">
       <c r="A10" s="1"/>
       <c r="B10" s="1"/>
       <c r="C10" s="1"/>
@@ -613,7 +671,7 @@
       <c r="F10" s="1"/>
       <c r="G10" s="1"/>
     </row>
-    <row r="11" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:57" x14ac:dyDescent="0.25">
       <c r="A11" s="1"/>
       <c r="B11" s="1"/>
       <c r="C11" s="1"/>
@@ -622,7 +680,7 @@
       <c r="F11" s="1"/>
       <c r="G11" s="1"/>
     </row>
-    <row r="12" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:57" x14ac:dyDescent="0.25">
       <c r="A12" s="1"/>
       <c r="B12" s="1"/>
       <c r="C12" s="1"/>
@@ -631,7 +689,7 @@
       <c r="F12" s="1"/>
       <c r="G12" s="1"/>
     </row>
-    <row r="13" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:57" x14ac:dyDescent="0.25">
       <c r="A13" s="1"/>
       <c r="B13" s="1"/>
       <c r="C13" s="1"/>
@@ -640,7 +698,7 @@
       <c r="F13" s="1"/>
       <c r="G13" s="1"/>
     </row>
-    <row r="14" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:57" x14ac:dyDescent="0.25">
       <c r="A14" s="1"/>
       <c r="B14" s="1"/>
       <c r="C14" s="1"/>
@@ -649,7 +707,7 @@
       <c r="F14" s="1"/>
       <c r="G14" s="1"/>
     </row>
-    <row r="15" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:57" x14ac:dyDescent="0.25">
       <c r="A15" s="1"/>
       <c r="B15" s="1"/>
       <c r="C15" s="1"/>
@@ -658,7 +716,7 @@
       <c r="F15" s="1"/>
       <c r="G15" s="1"/>
     </row>
-    <row r="16" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:57" x14ac:dyDescent="0.25">
       <c r="A16" s="1"/>
       <c r="B16" s="1"/>
       <c r="C16" s="1"/>
@@ -687,20 +745,17 @@
     </row>
   </sheetData>
   <mergeCells count="35">
-    <mergeCell ref="A9:B9"/>
-    <mergeCell ref="A10:B10"/>
-    <mergeCell ref="A11:B11"/>
-    <mergeCell ref="A1:B1"/>
-    <mergeCell ref="C1:G1"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="A4:B4"/>
-    <mergeCell ref="A5:B5"/>
-    <mergeCell ref="C4:W4"/>
-    <mergeCell ref="C5:AM5"/>
+    <mergeCell ref="C6:BD6"/>
+    <mergeCell ref="C17:G17"/>
+    <mergeCell ref="C18:G18"/>
+    <mergeCell ref="C11:G11"/>
+    <mergeCell ref="C12:G12"/>
+    <mergeCell ref="C13:G13"/>
+    <mergeCell ref="C14:G14"/>
+    <mergeCell ref="C15:G15"/>
+    <mergeCell ref="C16:G16"/>
     <mergeCell ref="A18:B18"/>
     <mergeCell ref="C2:G2"/>
-    <mergeCell ref="C6:G6"/>
     <mergeCell ref="C7:G7"/>
     <mergeCell ref="C8:G8"/>
     <mergeCell ref="C9:G9"/>
@@ -714,14 +769,17 @@
     <mergeCell ref="A6:B6"/>
     <mergeCell ref="A7:B7"/>
     <mergeCell ref="A8:B8"/>
-    <mergeCell ref="C17:G17"/>
-    <mergeCell ref="C18:G18"/>
-    <mergeCell ref="C11:G11"/>
-    <mergeCell ref="C12:G12"/>
-    <mergeCell ref="C13:G13"/>
-    <mergeCell ref="C14:G14"/>
-    <mergeCell ref="C15:G15"/>
-    <mergeCell ref="C16:G16"/>
+    <mergeCell ref="A9:B9"/>
+    <mergeCell ref="A10:B10"/>
+    <mergeCell ref="A11:B11"/>
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="C1:G1"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="C4:W4"/>
+    <mergeCell ref="C5:AM5"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
